--- a/new_data/example_input_file.xlsx
+++ b/new_data/example_input_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlenaczurak/ppy_projekt/new_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52367360-073B-4B9E-89EF-257E2FC0557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEA12D-36BC-5A42-A1D9-87BF56840AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{968C95F6-5B81-48B3-A28A-0D085CB2359F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{968C95F6-5B81-48B3-A28A-0D085CB2359F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,6 @@
     <t>actions_internal</t>
   </si>
   <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Sager</t>
-  </si>
-  <si>
     <t>The House across the lake</t>
   </si>
   <si>
@@ -102,13 +96,19 @@
   </si>
   <si>
     <t>To delete from further procesing</t>
+  </si>
+  <si>
+    <t>riley</t>
+  </si>
+  <si>
+    <t>sager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,16 +477,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,21 +512,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>29.99</v>
@@ -535,24 +535,24 @@
         <v>223193</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>8.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>37</v>
@@ -561,24 +561,24 @@
         <v>2231</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>9.9</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>22.5</v>
@@ -587,7 +587,7 @@
         <v>223419</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -596,23 +596,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="ee9cc38d-7bda-4cc7-b8f2-65051674e06e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009ADFB3284241E34FB9C0AD5BAB7667D1" ma:contentTypeVersion="1" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="b3b062102dfc9c972b1511cb748ffadd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee9cc38d-7bda-4cc7-b8f2-65051674e06e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="161d5502aa571e8df08bd4aba9e74ab8" ns2:_="">
     <xsd:import namespace="ee9cc38d-7bda-4cc7-b8f2-65051674e06e"/>
@@ -738,14 +721,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="ee9cc38d-7bda-4cc7-b8f2-65051674e06e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDCD87C-476C-4380-976E-CD418C62144C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB33C8B2-7DAF-4099-8E77-682FFEAE21C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee9cc38d-7bda-4cc7-b8f2-65051674e06e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714690CB-DA0D-4387-BA4A-2FBB09132825}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714690CB-DA0D-4387-BA4A-2FBB09132825}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB33C8B2-7DAF-4099-8E77-682FFEAE21C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDCD87C-476C-4380-976E-CD418C62144C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee9cc38d-7bda-4cc7-b8f2-65051674e06e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>